--- a/docs/qa_pairs.xlsx
+++ b/docs/qa_pairs.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="24795" windowHeight="12345"/>
+    <workbookView xWindow="360" yWindow="60" windowWidth="24792" windowHeight="12348"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>질문</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,14 +35,6 @@
   </si>
   <si>
     <t xml:space="preserve">비밀번호 잃어버리면 어떻게 하나? </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">로그인 화면에 보면 비밀번호 찾기를 눌른 후 본인확인을 통해 비밀번호를 찾을 수 있어. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">노무비명세서의 연장수당은 어떤 조건에 발생해? </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -72,6 +64,36 @@
   </si>
   <si>
     <t xml:space="preserve">휴일수당은 계약서에 기재한 휴일과 공휴일(임시공휴일, 대체공휴일 포함), 근로자의날에 근로한 경우에 발생합니다. 휴일수당은 기본수당의 50%가 가산됩니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">연장수당은 어떤 조건에 발생해? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">노무비명세서 작성은 어떻게 해? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">노무비명세서에 직접 자료를 입력할수는 없습니다. 
+일용근로자계약서관리 메뉴를 통해서 계약서를 작성하고, 출퇴근관리 메뉴에서 근로자의 출역내역을 입력하면, 시스템이 노무비명세서의 노무비를 계산해 줍니다. 
+계약서상의 임금과 출퇴근메뉴에서입력한 근무시간을 사용하여 기본수당, 연장수당, 야간수당, 휴일수당, 주휴수당, 연차수당을 함께 계산합니다. 
+소득세등의 원천징수에 대한 부분도 함께 계산됩니다. 
+수정이 필요하다면 노무비명세서 상세화면에서 노무비명세서내의 금액을 클릭하여 나오는 "노무비명세서 금액"팝업에서 수정할 수 있습니다. 금액을 수정한 경우 사유를 꼭 입력하셔야 하며, 사유는 추후 금액수정에 대한 소명자료로 사용됩니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">사업연결은 어떻게해? </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">발주처의 경우 권한관리&gt;사업연결/등록신청 메뉴에서 사업 검색 후 사업명 앞의 체크박스에 체크하고 사업연결 신청버튼을 통해 사업연결 신청이 가능합니다. 
+시공사와 건설사업관리자는 발주처가 사업연결되어있지 않으면 사업연결신청을 할수 없으니 발주처는 본인의 담당 사업에 항상 연결되어있는지 신경써야 합니다.
+사업 건색이 되지 않는 것은 정확한 사업명을 입력하지 않았거나(사업명이 비슷한 경우가 많기 때문에 정확한 사업명을 입력할 필요가 있음) 조달청을 통해 공기연장이 이루어진 후 OnePMIS에서 공기연장 처리를 하지 않아 준공예정일이 지나버리면 사업 상태가 종료로 변경되기 때문이므로 사업명 왼쪽에 있는 상태를 전체 혹은 완료로 변경하여 검색하면 됩니다. 이 경우 사업연결 후 공기연장 처리를 꼭 해야합니다. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">로그인 화면에 보면 비밀번호 찾기를 클릭한 후 본인확인(휴대폰, 신용카드, 아이핀)을 통해 비밀번호를 찾을 수 있어. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -426,20 +448,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="33.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="44" style="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -450,47 +472,69 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+    </row>
+    <row r="4" spans="1:3" ht="139.19999999999999" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B4" s="1" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="148.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="66" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="52.2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="261" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="B6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="261" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>3</v>
       </c>
     </row>
@@ -507,7 +551,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -520,7 +564,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/qa_pairs.xlsx
+++ b/docs/qa_pairs.xlsx
@@ -87,13 +87,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">발주처의 경우 권한관리&gt;사업연결/등록신청 메뉴에서 사업 검색 후 사업명 앞의 체크박스에 체크하고 사업연결 신청버튼을 통해 사업연결 신청이 가능합니다. 
+    <t xml:space="preserve">로그인 화면에 보면 비밀번호 찾기를 클릭한 후 본인확인(휴대폰, 신용카드, 아이핀)을 통해 비밀번호를 찾을 수 있어. </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">권한관리&gt;사업연결/등록신청 메뉴에서 사업 검색 후 사업명 앞의 체크박스에 체크하고 사업연결 신청버튼을 통해 사업연결 신청이 가능합니다. 
 시공사와 건설사업관리자는 발주처가 사업연결되어있지 않으면 사업연결신청을 할수 없으니 발주처는 본인의 담당 사업에 항상 연결되어있는지 신경써야 합니다.
-사업 건색이 되지 않는 것은 정확한 사업명을 입력하지 않았거나(사업명이 비슷한 경우가 많기 때문에 정확한 사업명을 입력할 필요가 있음) 조달청을 통해 공기연장이 이루어진 후 OnePMIS에서 공기연장 처리를 하지 않아 준공예정일이 지나버리면 사업 상태가 종료로 변경되기 때문이므로 사업명 왼쪽에 있는 상태를 전체 혹은 완료로 변경하여 검색하면 됩니다. 이 경우 사업연결 후 공기연장 처리를 꼭 해야합니다. </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">로그인 화면에 보면 비밀번호 찾기를 클릭한 후 본인확인(휴대폰, 신용카드, 아이핀)을 통해 비밀번호를 찾을 수 있어. </t>
+사업 검색이 되지 않는 것은 정확한 사업명을 입력하지 않았거나(사업명이 비슷한 경우가 많기 때문에 정확한 사업명을 입력할 필요가 있음) 조달청을 통해 공기연장이 이루어진 후 OnePMIS에서 공기연장 처리를 하지 않아 준공예정일이 지나버리면 사업 상태가 종료로 변경되기 때문이므로 사업명 왼쪽에 있는 상태를 전체 혹은 완료로 변경하여 검색하면 됩니다. 이 경우 발주처 사용자는 사업연결 후 공기연장 처리를 꼭 해야합니다. </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,8 +450,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -477,7 +477,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>9</v>
@@ -527,12 +527,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="261" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" ht="313.2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>3</v>
